--- a/PGN_LIST.xlsx
+++ b/PGN_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NolteS\Documents\Github\AOG_N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD19F5E-53FF-4506-9687-1EA53062A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F21C389-F74F-4AEB-AEFC-7011C6313EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6C01B36-6B7E-4DE1-8E67-24F6C4D5696E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6C01B36-6B7E-4DE1-8E67-24F6C4D5696E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>D0</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>SRC</t>
-  </si>
-  <si>
-    <t>DEST</t>
   </si>
   <si>
     <t>PGN</t>
@@ -254,9 +251,6 @@
     </r>
   </si>
   <si>
-    <t>Flow Target</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">RH Wing Lift
 </t>
@@ -341,6 +335,30 @@
   </si>
   <si>
     <t>Target Application Rate</t>
+  </si>
+  <si>
+    <t>AOG</t>
+  </si>
+  <si>
+    <t>AIO</t>
+  </si>
+  <si>
+    <t>0x98</t>
+  </si>
+  <si>
+    <t>Central Reports</t>
+  </si>
+  <si>
+    <t>Row Reports</t>
+  </si>
+  <si>
+    <t>0x99</t>
+  </si>
+  <si>
+    <t>Row 1 FlowRate</t>
+  </si>
+  <si>
+    <t>Hyd Flow Target</t>
   </si>
 </sst>
 </file>
@@ -745,15 +763,14 @@
   <dimension ref="C1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="16" customWidth="1"/>
+    <col min="11" max="18" width="16" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,57 +818,60 @@
         <v>25</v>
       </c>
       <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>52</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:32" x14ac:dyDescent="0.25">
@@ -862,6 +882,21 @@
       <c r="D5">
         <v>153</v>
       </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C6" t="str">
@@ -871,6 +906,18 @@
       <c r="D6">
         <v>152</v>
       </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="3:32" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C7" t="str">
@@ -884,33 +931,33 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="3:32" ht="63.75" x14ac:dyDescent="0.25">
@@ -925,43 +972,43 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.25">
